--- a/게임 디자인/DB/이벤트DB예시.xlsx
+++ b/게임 디자인/DB/이벤트DB예시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717BBA28-E22B-4E86-9F2B-F09D39BAFF5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884DD96-A6F3-45E1-9065-7925C91D1087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1800" windowWidth="28785" windowHeight="13125" xr2:uid="{C0E5F8FD-AB75-4CE1-B271-49B05D4FF285}"/>
+    <workbookView xWindow="90" yWindow="870" windowWidth="22005" windowHeight="14565" xr2:uid="{C0E5F8FD-AB75-4CE1-B271-49B05D4FF285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,6 +1057,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>